--- a/status_campanhas.xlsx
+++ b/status_campanhas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neotasssp-my.sharepoint.com/personal/wesley_lima_neotass_com_br/Documents/Python/allin_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_FFDD26065430921FD2FE31D2F8F2D3C224D585D8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40C37C0D-BFCB-4CC8-B221-F5657EAB588F}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_5DD026065430921FD2FE31D2F8F2D3C27452A188" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C81DD8ED-9124-4D8E-9C0E-98AECA261620}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,7 +428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
